--- a/Evaluations Forms/EvaluationForms-W__-21201408-StillZhenheLi.xlsx
+++ b/Evaluations Forms/EvaluationForms-W__-21201408-StillZhenheLi.xlsx
@@ -1,220 +1,496 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utad4-my.sharepoint.com/personal/al22653_alunos_utad_pt/Documents/Ambiente de Trabalho/Evaluations Week 1/Evaluations Forms/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{79439C10-66A9-4863-AD7A-79C26F75526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{635A296C-25BC-4227-9A11-CFC2190798FA}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="5535" windowWidth="38700" windowHeight="15345" xr2:uid="{C837394A-674A-4B62-AC40-90A56BBDFD1D}"/>
+    <workbookView windowWidth="18468" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+  <si>
+    <t>Inner Team Assessment（1~5）</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
   <si>
     <t>Contribution</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Motivation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Execution</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Responsibility</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Collaboration</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Leader </t>
+  </si>
+  <si>
+    <t>Brioche</t>
+  </si>
+  <si>
+    <t>Database Engineer</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>Database Developers</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Database Architect</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Architecture Tester</t>
+  </si>
+  <si>
+    <t>Maxwell</t>
+  </si>
+  <si>
+    <t>Infrastructure Tester</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>List ALL the other members than yourself.</t>
   </si>
   <si>
     <t>Personal work load completed in respect of group module.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Subjective and objective driving force to complete personal work load.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Communication</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collaboration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Work effectively on her/his fair share or more; commit in time; etc.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Responsibility</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>List ALL the other members than yourself.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play her/his role actively and ready to compensate the other group members' role.</t>
+  </si>
+  <si>
+    <t>Effective and timely communication with group members.</t>
   </si>
   <si>
     <t>Cooperates effectively with other members in the group.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effective and timely communication with group members.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Play her/his role actively and ready to compensate the other group members' role.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inner Team Assessment（1~5）</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Contribution</t>
-  </si>
-  <si>
-    <t>Motivation</t>
-  </si>
-  <si>
-    <t>Execution</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Collaboration</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Database Developers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carlos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Architecture Tester</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infrastructure Tester</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brioche</t>
-  </si>
-  <si>
-    <t>Database Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Leader </t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Watson</t>
-  </si>
-  <si>
-    <t>Still</t>
-  </si>
-  <si>
-    <t>Maxwell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -223,17 +499,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -241,14 +556,217 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -256,39 +774,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -337,7 +899,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -370,26 +932,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -422,23 +967,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,94 +1108,89 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C98B110-97C1-4E21-93A3-ADA4289AC304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="5.71296296296296" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="5.7109375" style="2"/>
+    <col min="1" max="1" width="21.712962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.287037037037" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.712962962963" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.71296296296296" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.712962962963" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1388888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1388888888889" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28703703703704" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="5.71296296296296" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="1">
+    <row r="1" ht="15" customHeight="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5">
         <v>2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
@@ -691,15 +1214,15 @@
         <f>SUM(C3:H3)</f>
         <v>30</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>5</v>
@@ -723,19 +1246,19 @@
         <f>SUM(C4:H4)</f>
         <v>30</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="5">
         <v>3</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -759,19 +1282,19 @@
         <f>SUM(C5:H5)</f>
         <v>30</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="5">
         <v>4</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -795,16 +1318,16 @@
         <f t="shared" ref="I6:I8" si="0">SUM(C6:H6)</f>
         <v>30</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
@@ -828,14 +1351,14 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" ht="15" customHeight="1" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -860,135 +1383,135 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1"/>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+    <row r="9" ht="15" customHeight="1"/>
+    <row r="10" ht="15" customHeight="1" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+    <row r="11" ht="15" customHeight="1" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6" t="s">
+    <row r="12" ht="15" customHeight="1" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="13" ht="15" customHeight="1" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="14" ht="15" customHeight="1" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="2" t="s">
+    <row r="17" ht="15" customHeight="1" spans="1:9">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:I17"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:H9" xr:uid="{E638E43E-6F1C-4712-A08C-EBD677F4902A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:H9">
       <formula1>$J$1:$J$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>